--- a/public/exports/crex_ecrf_export_2017_10_22.xlsx
+++ b/public/exports/crex_ecrf_export_2017_10_22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="234">
   <si>
     <t>病人号</t>
   </si>
@@ -324,21 +324,6 @@
     <t>男</t>
   </si>
   <si>
-    <t>hahaha0003</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>2017-09-03</t>
-  </si>
-  <si>
-    <t>hahaha0004</t>
-  </si>
-  <si>
-    <t>中途退出</t>
-  </si>
-  <si>
     <t>hahaha0005</t>
   </si>
   <si>
@@ -351,414 +336,315 @@
     <t>异常，无临床意义</t>
   </si>
   <si>
-    <t>hahaha0006</t>
-  </si>
-  <si>
-    <t>已审核</t>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>根据标准入选/排除，在病例报告表中登记</t>
+  </si>
+  <si>
+    <t>向患者口头告知本试验研究信息，演示C-REX LapAid和C-REX DMH/DMHC</t>
+  </si>
+  <si>
+    <t>向患者提供本试验研究的书面资料</t>
+  </si>
+  <si>
+    <t>患者在知情同意书上签字</t>
+  </si>
+  <si>
+    <t>在病例报告表中登记受试者人口学资料</t>
+  </si>
+  <si>
+    <t>在病例报告表中记录受试者病史</t>
+  </si>
+  <si>
+    <t>在病例报告表中记录受试者合并用药情况</t>
+  </si>
+  <si>
+    <t>将向受试者下医嘱行术前肠道清洁</t>
+  </si>
+  <si>
+    <t>诊断方法、结果记录在病例报告中。</t>
+  </si>
+  <si>
+    <t>2017-10-02</t>
+  </si>
+  <si>
+    <t>复诊日期</t>
+  </si>
+  <si>
+    <t>受试者住院</t>
+  </si>
+  <si>
+    <t>肠道清洁</t>
+  </si>
+  <si>
+    <t>预防性抗生素 (若使用抗生素，请完整填写《合并用药情况表》)</t>
+  </si>
+  <si>
+    <t>预防性抗凝血药 (若使用抗凝血药，请完整填写《合并用药情况表》)</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
   </si>
   <si>
     <t>2017-09-14</t>
   </si>
   <si>
-    <t>2017-09-05</t>
-  </si>
-  <si>
-    <t>hahaha0007</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>待审核</t>
+    <t>退出阶段</t>
+  </si>
+  <si>
+    <t>退出时间</t>
+  </si>
+  <si>
+    <t>进行试验相关手术前，受试者希望退出试验</t>
+  </si>
+  <si>
+    <t>临床研究者认为不良事件和器械缺陷将引起受试者严重或永久性损伤</t>
+  </si>
+  <si>
+    <t>临床研究者认为受试者应被排除或受试者自己认为应被排除</t>
+  </si>
+  <si>
+    <t>请注明原因</t>
+  </si>
+  <si>
+    <t>受试者违反知情同意书中所列条款或不能遵从临床研究者医嘱</t>
+  </si>
+  <si>
+    <t>其他原因</t>
+  </si>
+  <si>
+    <t>术中发现肠管直径异常或肠管壁厚度异常，例如憩室炎，慢性的肠梗阻</t>
+  </si>
+  <si>
+    <t>术中发现癌扩散</t>
+  </si>
+  <si>
+    <t>手术中退出</t>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>药物名称</t>
+  </si>
+  <si>
+    <t>剂量和用药间隔</t>
+  </si>
+  <si>
+    <t>给药途径</t>
+  </si>
+  <si>
+    <t>其他，请注明</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>用药原因/目的</t>
+  </si>
+  <si>
+    <t>visit2</t>
+  </si>
+  <si>
+    <t>2017-09-12</t>
+  </si>
+  <si>
+    <t>2017-09-22</t>
+  </si>
+  <si>
+    <t>报告类型</t>
+  </si>
+  <si>
+    <t>报告时间</t>
+  </si>
+  <si>
+    <t>SAE的医学术语(诊断)</t>
+  </si>
+  <si>
+    <t>预期的SAE</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>死亡时间</t>
+  </si>
+  <si>
+    <t>导致住院</t>
+  </si>
+  <si>
+    <t>延长住院时间</t>
+  </si>
+  <si>
+    <t>伤残</t>
+  </si>
+  <si>
+    <t>功能障碍</t>
+  </si>
+  <si>
+    <t>导致先天畸形</t>
+  </si>
+  <si>
+    <t>危及生命</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>其它SAE情况(填写)</t>
+  </si>
+  <si>
+    <t>SAE发生时间</t>
+  </si>
+  <si>
+    <t>研究者获知SAE时间</t>
+  </si>
+  <si>
+    <t>对受试器械采取的措施</t>
+  </si>
+  <si>
+    <t>SAE转归</t>
+  </si>
+  <si>
+    <t>有后遗症</t>
+  </si>
+  <si>
+    <t>SAE与受试器械的关系</t>
+  </si>
+  <si>
+    <t>SAE报道情况(国内)</t>
+  </si>
+  <si>
+    <t>SAE报道情况(国外)</t>
+  </si>
+  <si>
+    <t>SAE发生及处理的详细情况</t>
+  </si>
+  <si>
+    <t>首次报告</t>
+  </si>
+  <si>
+    <t>2017-10-02 03:00</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>2017-10-01 05:00</t>
+  </si>
+  <si>
+    <t>2017-10-02 01:00</t>
+  </si>
+  <si>
+    <t>保留器械</t>
+  </si>
+  <si>
+    <t>症状消失</t>
+  </si>
+  <si>
+    <t>肯定有关</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>asdsaa</t>
+  </si>
+  <si>
+    <t>事件 (名称及症状)</t>
+  </si>
+  <si>
+    <t>发生时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>严重程度</t>
+  </si>
+  <si>
+    <t>采取措施</t>
+  </si>
+  <si>
+    <t>报告</t>
+  </si>
+  <si>
+    <t>与试验器械和/或试验操作的关系</t>
+  </si>
+  <si>
+    <t>转归</t>
+  </si>
+  <si>
+    <t>SAE（请完整填写《严重不良事件（SAE）报告》表)</t>
+  </si>
+  <si>
+    <t>器械缺陷</t>
+  </si>
+  <si>
+    <t>因该事件退出试验（请完整填写《中途退出试验》表)</t>
+  </si>
+  <si>
+    <t>手术中</t>
+  </si>
+  <si>
+    <t>手术日期</t>
+  </si>
+  <si>
+    <t>C-REX LapAid型号</t>
+  </si>
+  <si>
+    <t>C-REX DMH/DMHC型号</t>
+  </si>
+  <si>
+    <t>直肠</t>
+  </si>
+  <si>
+    <t>肿瘤距离肛门(cm)</t>
+  </si>
+  <si>
+    <t>肿瘤大小-长度(cm)</t>
+  </si>
+  <si>
+    <t>肿瘤大小-宽度(cm)</t>
+  </si>
+  <si>
+    <t>肿瘤浸润范围</t>
+  </si>
+  <si>
+    <t>吻合方式</t>
+  </si>
+  <si>
+    <t>手术方式</t>
+  </si>
+  <si>
+    <t>术中吻合口完整性压力-若使用DMHC(mbar)</t>
+  </si>
+  <si>
+    <t>肛门外监测导管长度-若使用DMHC(cm)</t>
+  </si>
+  <si>
+    <t>手术时间(分钟)</t>
+  </si>
+  <si>
+    <t>术中出血量(mL)</t>
+  </si>
+  <si>
+    <t>不良事件(请完整填写《不良事件及器械缺陷报告表》)</t>
   </si>
   <si>
     <t>2017-09-16</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>根据标准入选/排除，在病例报告表中登记</t>
-  </si>
-  <si>
-    <t>向患者口头告知本试验研究信息，演示C-REX LapAid和C-REX DMH/DMHC</t>
-  </si>
-  <si>
-    <t>向患者提供本试验研究的书面资料</t>
-  </si>
-  <si>
-    <t>患者在知情同意书上签字</t>
-  </si>
-  <si>
-    <t>在病例报告表中登记受试者人口学资料</t>
-  </si>
-  <si>
-    <t>在病例报告表中记录受试者病史</t>
-  </si>
-  <si>
-    <t>在病例报告表中记录受试者合并用药情况</t>
-  </si>
-  <si>
-    <t>将向受试者下医嘱行术前肠道清洁</t>
-  </si>
-  <si>
-    <t>诊断方法、结果记录在病例报告中。</t>
-  </si>
-  <si>
-    <t>2017-10-02</t>
-  </si>
-  <si>
-    <t>2017-09-07</t>
-  </si>
-  <si>
-    <t>复诊日期</t>
-  </si>
-  <si>
-    <t>受试者住院</t>
-  </si>
-  <si>
-    <t>肠道清洁</t>
-  </si>
-  <si>
-    <t>预防性抗生素 (若使用抗生素，请完整填写《合并用药情况表》)</t>
-  </si>
-  <si>
-    <t>预防性抗凝血药 (若使用抗凝血药，请完整填写《合并用药情况表》)</t>
-  </si>
-  <si>
-    <t>2017-10-04</t>
-  </si>
-  <si>
-    <t>2017-08-30</t>
-  </si>
-  <si>
-    <t>退出阶段</t>
-  </si>
-  <si>
-    <t>退出时间</t>
-  </si>
-  <si>
-    <t>进行试验相关手术前，受试者希望退出试验</t>
-  </si>
-  <si>
-    <t>临床研究者认为不良事件和器械缺陷将引起受试者严重或永久性损伤</t>
-  </si>
-  <si>
-    <t>临床研究者认为受试者应被排除或受试者自己认为应被排除</t>
-  </si>
-  <si>
-    <t>请注明原因</t>
-  </si>
-  <si>
-    <t>受试者违反知情同意书中所列条款或不能遵从临床研究者医嘱</t>
-  </si>
-  <si>
-    <t>其他原因</t>
-  </si>
-  <si>
-    <t>术中发现肠管直径异常或肠管壁厚度异常，例如憩室炎，慢性的肠梗阻</t>
-  </si>
-  <si>
-    <t>术中发现癌扩散</t>
-  </si>
-  <si>
-    <t>手术后退出</t>
-  </si>
-  <si>
-    <t>2017-09-11</t>
-  </si>
-  <si>
-    <t>sssss</t>
-  </si>
-  <si>
-    <t>手术中退出</t>
-  </si>
-  <si>
-    <t>来源</t>
-  </si>
-  <si>
-    <t>药物名称</t>
-  </si>
-  <si>
-    <t>剂量和用药间隔</t>
-  </si>
-  <si>
-    <t>给药途径</t>
-  </si>
-  <si>
-    <t>其他，请注明</t>
-  </si>
-  <si>
-    <t>开始日期</t>
-  </si>
-  <si>
-    <t>结束日期</t>
-  </si>
-  <si>
-    <t>用药原因/目的</t>
-  </si>
-  <si>
-    <t>2017-08-31</t>
-  </si>
-  <si>
-    <t>visit1</t>
-  </si>
-  <si>
-    <t>qqq</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>口服</t>
-  </si>
-  <si>
-    <t>fsdfa</t>
-  </si>
-  <si>
-    <t>visit2</t>
-  </si>
-  <si>
-    <t>2017-09-12</t>
-  </si>
-  <si>
-    <t>2017-09-22</t>
-  </si>
-  <si>
-    <t>报告类型</t>
-  </si>
-  <si>
-    <t>报告时间</t>
-  </si>
-  <si>
-    <t>SAE的医学术语(诊断)</t>
-  </si>
-  <si>
-    <t>预期的SAE</t>
-  </si>
-  <si>
-    <t>死亡</t>
-  </si>
-  <si>
-    <t>死亡时间</t>
-  </si>
-  <si>
-    <t>导致住院</t>
-  </si>
-  <si>
-    <t>延长住院时间</t>
-  </si>
-  <si>
-    <t>伤残</t>
-  </si>
-  <si>
-    <t>功能障碍</t>
-  </si>
-  <si>
-    <t>导致先天畸形</t>
-  </si>
-  <si>
-    <t>危及生命</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>其它SAE情况(填写)</t>
-  </si>
-  <si>
-    <t>SAE发生时间</t>
-  </si>
-  <si>
-    <t>研究者获知SAE时间</t>
-  </si>
-  <si>
-    <t>对受试器械采取的措施</t>
-  </si>
-  <si>
-    <t>SAE转归</t>
-  </si>
-  <si>
-    <t>有后遗症</t>
-  </si>
-  <si>
-    <t>SAE与受试器械的关系</t>
-  </si>
-  <si>
-    <t>SAE报道情况(国内)</t>
-  </si>
-  <si>
-    <t>SAE报道情况(国外)</t>
-  </si>
-  <si>
-    <t>SAE发生及处理的详细情况</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>2017-09-06 00:00</t>
-  </si>
-  <si>
-    <t>2017-09-06 19:57</t>
-  </si>
-  <si>
-    <t>首次报告</t>
-  </si>
-  <si>
-    <t>2017-10-02 03:00</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>2017-10-01 05:00</t>
-  </si>
-  <si>
-    <t>2017-10-02 01:00</t>
-  </si>
-  <si>
-    <t>保留器械</t>
-  </si>
-  <si>
-    <t>症状消失</t>
-  </si>
-  <si>
-    <t>肯定有关</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>asdsaa</t>
-  </si>
-  <si>
-    <t>事件 (名称及症状)</t>
-  </si>
-  <si>
-    <t>发生时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>严重程度</t>
-  </si>
-  <si>
-    <t>采取措施</t>
-  </si>
-  <si>
-    <t>报告</t>
-  </si>
-  <si>
-    <t>与试验器械和/或试验操作的关系</t>
-  </si>
-  <si>
-    <t>转归</t>
-  </si>
-  <si>
-    <t>SAE（请完整填写《严重不良事件（SAE）报告》表)</t>
-  </si>
-  <si>
-    <t>器械缺陷</t>
-  </si>
-  <si>
-    <t>因该事件退出试验（请完整填写《中途退出试验》表)</t>
-  </si>
-  <si>
-    <t>术后第2天第1次访视</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>2017-08-26 18:23</t>
-  </si>
-  <si>
-    <t>严重</t>
-  </si>
-  <si>
-    <t>可能有关</t>
-  </si>
-  <si>
-    <t>消失</t>
-  </si>
-  <si>
-    <t>术后第2天第2次访视</t>
-  </si>
-  <si>
-    <t>轻度</t>
-  </si>
-  <si>
-    <t>手术中</t>
-  </si>
-  <si>
-    <t>2017-09-06 19:02</t>
-  </si>
-  <si>
-    <t>手术日期</t>
-  </si>
-  <si>
-    <t>C-REX LapAid型号</t>
-  </si>
-  <si>
-    <t>C-REX DMH/DMHC型号</t>
-  </si>
-  <si>
-    <t>直肠</t>
-  </si>
-  <si>
-    <t>肿瘤距离肛门(cm)</t>
-  </si>
-  <si>
-    <t>肿瘤大小-长度(cm)</t>
-  </si>
-  <si>
-    <t>肿瘤大小-宽度(cm)</t>
-  </si>
-  <si>
-    <t>肿瘤浸润范围</t>
-  </si>
-  <si>
-    <t>吻合方式</t>
-  </si>
-  <si>
-    <t>手术方式</t>
-  </si>
-  <si>
-    <t>术中吻合口完整性压力-若使用DMHC(mbar)</t>
-  </si>
-  <si>
-    <t>肛门外监测导管长度-若使用DMHC(cm)</t>
-  </si>
-  <si>
-    <t>手术时间(分钟)</t>
-  </si>
-  <si>
-    <t>术中出血量(mL)</t>
-  </si>
-  <si>
-    <t>不良事件(请完整填写《不良事件及器械缺陷报告表》)</t>
-  </si>
-  <si>
     <t>A26000</t>
   </si>
   <si>
     <t>A29300 C-REX DMH</t>
   </si>
   <si>
-    <t>2017-08-01</t>
-  </si>
-  <si>
-    <t>A26300 C-REX DMH</t>
-  </si>
-  <si>
-    <t>端端吻合</t>
-  </si>
-  <si>
-    <t>开腹手术</t>
-  </si>
-  <si>
     <t>当天第n次访视</t>
   </si>
   <si>
@@ -831,28 +717,7 @@
     <t>电话</t>
   </si>
   <si>
-    <t>2017-08-03</t>
-  </si>
-  <si>
     <t>病房</t>
-  </si>
-  <si>
-    <t>恢复良好,无需访视</t>
-  </si>
-  <si>
-    <t>重度</t>
-  </si>
-  <si>
-    <t>腹紧张</t>
-  </si>
-  <si>
-    <t>严重感染</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>流食</t>
   </si>
   <si>
     <t>2017-10-14</t>
@@ -1232,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH7"/>
+  <dimension ref="A1:DH3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
@@ -1910,13 +1775,13 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>96</v>
@@ -1931,7 +1796,7 @@
         <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
         <v>98</v>
@@ -1946,20 +1811,14 @@
         <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q3" t="s">
         <v>98</v>
       </c>
-      <c r="R3" t="s">
-        <v>98</v>
-      </c>
       <c r="S3" t="s">
         <v>98</v>
       </c>
@@ -2213,7 +2072,7 @@
         <v>98</v>
       </c>
       <c r="CY3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="b">
         <v>0</v>
@@ -2221,1230 +2080,25 @@
       <c r="DA3" t="b">
         <v>0</v>
       </c>
+      <c r="DB3" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>98</v>
+      </c>
       <c r="DD3" t="b">
         <v>0</v>
       </c>
+      <c r="DE3" t="s">
+        <v>98</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>98</v>
+      </c>
       <c r="DG3" t="b">
         <v>0</v>
       </c>
       <c r="DH3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ4">
-        <v>45</v>
-      </c>
-      <c r="CP4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>98</v>
-      </c>
-      <c r="CY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>98</v>
-      </c>
-      <c r="DD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>98</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>98</v>
-      </c>
-      <c r="DG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>98</v>
-      </c>
-      <c r="CY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>98</v>
-      </c>
-      <c r="DD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>98</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>98</v>
-      </c>
-      <c r="DG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>1980</v>
-      </c>
-      <c r="N6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>98</v>
-      </c>
-      <c r="CY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>98</v>
-      </c>
-      <c r="DD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>98</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>98</v>
-      </c>
-      <c r="DG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>98</v>
-      </c>
-      <c r="CY7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC7" t="s">
-        <v>98</v>
-      </c>
-      <c r="DD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE7" t="s">
-        <v>98</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>98</v>
-      </c>
-      <c r="DG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3456,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3485,34 +2139,34 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="R1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3541,7 +2195,7 @@
         <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -3569,62 +2223,6 @@
       </c>
       <c r="R2" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3664,19 +2262,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="M1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3705,7 +2303,7 @@
         <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -3722,16 +2320,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>96</v>
@@ -3746,59 +2344,18 @@
         <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3810,7 +2367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3839,51 +2396,51 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="P1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
         <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
@@ -3898,95 +2455,36 @@
         <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" t="b">
         <v>1</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
       <c r="S2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +2496,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4027,42 +2525,42 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="N1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
@@ -4076,8 +2574,11 @@
       <c r="H2" t="s">
         <v>98</v>
       </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
@@ -4086,109 +2587,12 @@
         <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" t="s">
-        <v>166</v>
-      </c>
-      <c r="O4" t="s">
-        <v>167</v>
-      </c>
-      <c r="P4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4200,7 +2604,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -4229,90 +2633,90 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
         <v>151</v>
       </c>
-      <c r="J1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" t="s">
-        <v>174</v>
-      </c>
       <c r="Q1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="R1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="S1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="T1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="U1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="V1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="W1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="X1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="Y1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="Z1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="AA1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="AB1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="AC1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="AD1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="AE1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="AF1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
@@ -4327,13 +2731,16 @@
         <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -4342,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -4369,114 +2776,31 @@
         <v>98</v>
       </c>
       <c r="X2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="Y2" t="s">
-        <v>193</v>
+        <v>172</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>174</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
       </c>
+      <c r="AC2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>176</v>
+      </c>
       <c r="AF2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K3" t="s">
-        <v>195</v>
-      </c>
-      <c r="L3" t="s">
-        <v>196</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +2811,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -4516,57 +2840,57 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="L1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="O1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="P1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="Q1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="R1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" t="s">
         <v>186</v>
       </c>
-      <c r="S1" t="s">
-        <v>212</v>
-      </c>
       <c r="T1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="U1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
@@ -4581,19 +2905,16 @@
         <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M2" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -4601,12 +2922,6 @@
       <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>220</v>
-      </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
@@ -4617,183 +2932,6 @@
         <v>0</v>
       </c>
       <c r="U2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M3" t="s">
-        <v>222</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>220</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4805,7 +2943,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -4834,13 +2972,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="K1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="L1" t="s">
         <v>78</v>
@@ -4849,40 +2987,40 @@
         <v>79</v>
       </c>
       <c r="N1" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="O1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="P1" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="Q1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="S1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="T1" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="U1" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="W1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="X1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="Y1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -4911,13 +3049,13 @@
         <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -4937,16 +3075,16 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>96</v>
@@ -4961,13 +3099,7 @@
         <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>242</v>
-      </c>
-      <c r="J3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -4981,57 +3113,7 @@
       <c r="R3" t="s">
         <v>98</v>
       </c>
-      <c r="S3" t="s">
-        <v>244</v>
-      </c>
-      <c r="T3" t="s">
-        <v>245</v>
-      </c>
       <c r="Y3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5043,7 +3125,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -5072,34 +3154,34 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="K1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="N1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="O1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="P1" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="Q1" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="R1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="S1" t="s">
         <v>59</v>
@@ -5108,52 +3190,52 @@
         <v>58</v>
       </c>
       <c r="U1" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="V1" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="W1" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="X1" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="Y1" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="Z1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="AA1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="AB1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="AC1" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="AD1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="AE1" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="AF1" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="AG1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="AH1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="AI1" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="AJ1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -5185,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="L2" t="s">
         <v>98</v>
@@ -5235,16 +3317,16 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>96</v>
@@ -5262,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="L3" t="s">
         <v>98</v>
@@ -5273,24 +3355,9 @@
       <c r="M3" t="s">
         <v>98</v>
       </c>
-      <c r="N3" t="s">
-        <v>272</v>
-      </c>
-      <c r="O3" t="s">
-        <v>273</v>
-      </c>
-      <c r="P3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>275</v>
-      </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>276</v>
-      </c>
       <c r="W3" t="b">
         <v>0</v>
       </c>
@@ -5302,15 +3369,6 @@
       </c>
       <c r="Z3" t="b">
         <v>0</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>254</v>
       </c>
       <c r="AD3" t="b">
         <v>0</v>
@@ -5336,16 +3394,16 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>96</v>
@@ -5360,13 +3418,13 @@
         <v>98</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="K4" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="L4" t="s">
         <v>98</v>
@@ -5374,24 +3432,9 @@
       <c r="M4" t="s">
         <v>98</v>
       </c>
-      <c r="N4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O4" t="s">
-        <v>273</v>
-      </c>
-      <c r="P4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>275</v>
-      </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
-      <c r="V4" t="s">
-        <v>276</v>
-      </c>
       <c r="W4" t="b">
         <v>0</v>
       </c>
@@ -5404,15 +3447,6 @@
       <c r="Z4" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>254</v>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -5432,160 +3466,6 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" t="s">
-        <v>271</v>
-      </c>
-      <c r="L6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="b">
         <v>0</v>
       </c>
     </row>
